--- a/기획서/리소스 현황.xlsx
+++ b/기획서/리소스 현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C72B6-BDFC-4DB2-8F46-4673482ADB7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5BDDC-E8B6-46F0-BE5C-8D7000C89058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
   </bookViews>
@@ -34,21 +34,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>관련 사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리소스 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>구비현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 대시 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 점프 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 착지 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_ani_stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 대기 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 피격 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 체공 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_snd_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_snd_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 대시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_snd_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_snd_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 점프 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 착지 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_snd_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 피격 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cha_snd_death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 사망 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +226,26 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -117,6 +256,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:E209" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E209" xr:uid="{795835E1-A5EC-4CB2-879C-42670F45654F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8526E7DB-DD0E-4067-8CA3-173A50119DC8}" name="분류" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{53826D25-E51A-44AE-86CA-8482463F40A3}" name="사용처" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A46CA9BD-9ADC-4106-A32E-3CA877FC7726}" name="리소스명" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{88745476-9FF2-414A-BAB2-828C2CA92B48}" name="설명" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9580405D-38C0-4A89-8E45-3028D5C22177}" name="구비현황"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,38 +569,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D47CCE-9D99-4315-B7BC-502C770B277D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/기획서/리소스 현황.xlsx
+++ b/기획서/리소스 현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D5BDDC-E8B6-46F0-BE5C-8D7000C89058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE1A42-8E85-42F2-8FA0-D2802EFF0906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
+    <workbookView xWindow="4215" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>구비현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,26 +48,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_ani_move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 이동 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_ani_dash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 대시 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_ani_jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_ani_land</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 점프 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,18 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_ani_flight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cha_ani_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cha_ani_stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 대기 애니메이션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,30 +96,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_snd_move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 이동 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_snd_run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 대시 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_snd_jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cha_snd_land</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 점프 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,19 +112,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_snd_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 피격 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cha_snd_death</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 사망 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ani_cha_move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movable_Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_mb_pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_mb_push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_switchlever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_switchtarget1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_switchtarget2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwitchLever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무버블 박스 밀기 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무버블 박스 당기기 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 레버 On/Off 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 타깃 Off&gt;On사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 타깃 On&gt;Off 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitleScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_ui_change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_ui_select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_ui_gamequit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료 선택시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브 데이터 선택시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택중인 데이터 변경시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문으로 이동할때 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +322,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -259,14 +358,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:E209" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:E209" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E209" xr:uid="{795835E1-A5EC-4CB2-879C-42670F45654F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8526E7DB-DD0E-4067-8CA3-173A50119DC8}" name="분류" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{53826D25-E51A-44AE-86CA-8482463F40A3}" name="사용처" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A46CA9BD-9ADC-4106-A32E-3CA877FC7726}" name="리소스명" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{88745476-9FF2-414A-BAB2-828C2CA92B48}" name="설명" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9580405D-38C0-4A89-8E45-3028D5C22177}" name="구비현황"/>
+    <tableColumn id="1" xr3:uid="{8526E7DB-DD0E-4067-8CA3-173A50119DC8}" name="분류" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{53826D25-E51A-44AE-86CA-8482463F40A3}" name="사용처" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A46CA9BD-9ADC-4106-A32E-3CA877FC7726}" name="리소스명" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{88745476-9FF2-414A-BAB2-828C2CA92B48}" name="설명" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9580405D-38C0-4A89-8E45-3028D5C22177}" name="구비현황" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D47CCE-9D99-4315-B7BC-502C770B277D}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -581,18 +680,18 @@
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -603,238 +702,382 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/기획서/리소스 현황.xlsx
+++ b/기획서/리소스 현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE1A42-8E85-42F2-8FA0-D2802EFF0906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F35B8-26F5-42CC-9399-4B8F5C3EBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>구비현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_shooter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈터 발사시 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D47CCE-9D99-4315-B7BC-502C770B277D}">
   <dimension ref="A1:E209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,10 +1015,38 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -1016,10 +1056,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
@@ -1033,31 +1073,17 @@
         <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>

--- a/기획서/리소스 현황.xlsx
+++ b/기획서/리소스 현황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F35B8-26F5-42CC-9399-4B8F5C3EBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD251471-F1EC-43F0-93A3-DA331824C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>구비현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,98 @@
   </si>
   <si>
     <t>슈터 발사시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_obs_laser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 근처에서 나는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_cha_abget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 능력 획득 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 등장연출시 나타나는 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스가 발사하는 폭탄 폭발 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_lb_land</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_bomb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스가 생성하는 laser_barrel 착지 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_bullet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_bullet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet 1차발사 시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet 2차발사 시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_spikemap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spikemap 다가오는 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_b1_throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bomb를 손에서 발사할때 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teleporter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd_pz_tp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포터 사용시 사운드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:E209" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E209" xr:uid="{795835E1-A5EC-4CB2-879C-42670F45654F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:E211" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E211" xr:uid="{795835E1-A5EC-4CB2-879C-42670F45654F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8526E7DB-DD0E-4067-8CA3-173A50119DC8}" name="분류" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{53826D25-E51A-44AE-86CA-8482463F40A3}" name="사용처" dataDxfId="3"/>
@@ -680,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D47CCE-9D99-4315-B7BC-502C770B277D}">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,7 +783,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -903,10 +995,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -917,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>21</v>
@@ -937,10 +1029,10 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
@@ -951,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
@@ -968,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>21</v>
@@ -988,10 +1080,10 @@
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>21</v>
@@ -1002,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
@@ -1019,13 +1111,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
@@ -1036,13 +1128,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
@@ -1053,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
@@ -1073,85 +1165,225 @@
         <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -1636,6 +1868,12 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획서/리소스 현황.xlsx
+++ b/기획서/리소스 현황.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD251471-F1EC-43F0-93A3-DA331824C39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA8AB4C-2082-4C42-AD95-2188CF26DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>구비현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TitleScene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>snd_ui_change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,6 +365,66 @@
   </si>
   <si>
     <t>텔레포터 사용시 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01 - title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02 - tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨1(튜토리얼) 배경음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀 화면 배경음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 - ruins1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04 - ruins2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05 - ruins3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨2 Room 03~09의 배경음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨2 Room 10~16의 배경음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨2 Room 01, 02, 17의 배경음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨2 Room18의 보스전투 배경음악</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06 - giant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D47CCE-9D99-4315-B7BC-502C770B277D}">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>21</v>
@@ -1111,13 +1167,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>21</v>
@@ -1128,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>21</v>
@@ -1145,13 +1201,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
@@ -1162,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>21</v>
@@ -1179,13 +1235,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>21</v>
@@ -1196,13 +1252,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>21</v>
@@ -1213,13 +1269,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>21</v>
@@ -1230,13 +1286,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>21</v>
@@ -1247,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>21</v>
@@ -1264,13 +1320,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>21</v>
@@ -1281,13 +1337,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>21</v>
@@ -1298,13 +1354,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>21</v>
@@ -1315,13 +1371,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>21</v>
@@ -1332,35 +1388,119 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>

--- a/기획서/리소스 현황.xlsx
+++ b/기획서/리소스 현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TS\Desktop\wa!\WA\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repositories\Graduate_Project\WA\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA8AB4C-2082-4C42-AD95-2188CF26DF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648AB860-E721-48C4-9CE4-EA48DAECBE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
+    <workbookView xWindow="6030" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{A4AE48CB-839F-4E99-95F9-4E855362A2BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="100">
   <si>
     <t>구비현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>06 - giant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +490,10 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -518,14 +529,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:E211" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E211" xr:uid="{795835E1-A5EC-4CB2-879C-42670F45654F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8526E7DB-DD0E-4067-8CA3-173A50119DC8}" name="분류" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{53826D25-E51A-44AE-86CA-8482463F40A3}" name="사용처" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A46CA9BD-9ADC-4106-A32E-3CA877FC7726}" name="리소스명" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{88745476-9FF2-414A-BAB2-828C2CA92B48}" name="설명" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{9580405D-38C0-4A89-8E45-3028D5C22177}" name="구비현황" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{39A878C2-52E2-4B48-8382-E5E91BF51872}" name="표3" displayName="표3" ref="A1:F211" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F211" xr:uid="{795835E1-A5EC-4CB2-879C-42670F45654F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8526E7DB-DD0E-4067-8CA3-173A50119DC8}" name="분류" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{53826D25-E51A-44AE-86CA-8482463F40A3}" name="사용처" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{A46CA9BD-9ADC-4106-A32E-3CA877FC7726}" name="리소스명" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{88745476-9FF2-414A-BAB2-828C2CA92B48}" name="설명" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{9580405D-38C0-4A89-8E45-3028D5C22177}" name="구비현황" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1C2FBA69-D1DB-44AD-9C74-FC1F0354BCF0}" name="열1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -828,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D47CCE-9D99-4315-B7BC-502C770B277D}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,7 +855,7 @@
     <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -859,8 +871,11 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,8 +888,9 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +903,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -901,8 +918,9 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,8 +933,9 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -929,8 +948,9 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -943,8 +963,9 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -957,8 +978,9 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -974,8 +996,9 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -991,8 +1014,9 @@
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1032,9 @@
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1025,8 +1050,9 @@
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1068,9 @@
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1059,8 +1086,9 @@
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1104,9 @@
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1093,8 +1122,11 @@
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1142,11 @@
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1127,8 +1162,11 @@
       <c r="E18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1182,11 @@
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1161,8 +1202,11 @@
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1222,11 @@
       <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1195,8 +1242,11 @@
       <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1262,11 @@
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -1229,8 +1282,11 @@
       <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1302,11 @@
       <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1263,8 +1322,11 @@
       <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1342,11 @@
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
@@ -1297,8 +1362,9 @@
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1380,9 @@
       <c r="E29" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -1331,8 +1398,9 @@
       <c r="E30" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1416,9 @@
       <c r="E31" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1365,8 +1434,9 @@
       <c r="E32" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1452,9 @@
       <c r="E33" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1399,8 +1470,9 @@
       <c r="E34" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,8 +1488,11 @@
       <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1508,11 @@
       <c r="E36" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1450,8 +1528,11 @@
       <c r="E37" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -1467,8 +1548,11 @@
       <c r="E38" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,8 +1568,11 @@
       <c r="E39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,519 +1588,693 @@
       <c r="E40" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F185" s="1"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F193" s="1"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F194" s="1"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F198" s="1"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F200" s="1"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F201" s="1"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F202" s="1"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F203" s="1"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F209" s="1"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F210" s="1"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
+      <c r="F211" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
